--- a/biology/Zoologie/Hyaenodon/Hyaenodon.xlsx
+++ b/biology/Zoologie/Hyaenodon/Hyaenodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyaenodon est un genre éteint de mammifères préhistoriques de la famille des hyaenodontidés et de l'ordre des créodontes, un groupe de carnivores anciens, différents de l'ordre des carnivores d'aujourd'hui. Apparu vers la fin de l'Éocène (- 41 Ma), il a disparu à l'aube du Miocène (- 21 Ma).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyænodon (« dent de hyène ») dont la taille, selon les espèces, variait de 30 centimètres à 1,4 mètre de haut pour un poids maximal de 500 kg, pouvait ressembler de loin à une hyène actuelle mais sa morphologie était en fait très différente. Il ressemblait beaucoup plus à un félin qu'à un canidé. Son corps, long et robuste, se terminait par une longue queue. Il possédait cinq orteils à chaque pied et chaque orteil était armé d'une griffe tranchante. Le cou était plus court que le crâne, long et très massif. Celui-ci se terminait par un museau étroit, beaucoup plus grand que ceux des carnivores actuels. 
 Le crâne de Hyænodon renfermait un cerveau plutôt petit pour un animal de cette envergure (néocortex de taille réduite) mais sa structure démontre qu'il était doté d'importants muscles maxillaires et d'un sens de l'odorat particulièrement aigu. La tête était si grosse et dentée qu'elle fait de cet animal un redoutable prédateur : ses huit dents pointues, acérées, étaient alignées de chaque côté de la mâchoire et conservaient leur arête tranchante. Les mâchoires, longues et étroites, étaient puissantes et servaient à mordre, à briser le cou de ses proies, à broyer et à écraser. La morphologie des molaires était différente de celle des Carnivores de l'époque actuelle.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles, assez communs, ont été trouvés en Asie, en Amérique du Nord, en Europe et en Afrique. Le site de Hsanda Gal, en Mongolie, est l'endroit où il y a eu le plus de découvertes.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitudes de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyænodon, surtout les petites espèces, pouvait être grégaire et chasser en groupe, mais un néocortex si petit, moins apte qu'un gros à la communication et à la coordination, indiquerait une propension à chasser davantage en solitaire qu'en groupe. Hyænodon pouvait s'attaquer aux chevaux comme aux chameaux. À plusieurs, ils pouvaient s'attaquer aux jeunes indricothères. Il est par ailleurs quasi certain qu'il y ait eu des espèces de Hyænodon fouisseuses. 
 Les espèces plus grandes, telle Hyænodon gigas, étaient plus solitaires et ne se fréquentaient qu'à la saison des amours. L'usure des dents fossiles démontre, selon plusieurs paléontologues, qu'il grinçait des dents, peut-être pour effrayer ses rivaux ou conquérir une femelle. Hyænodon était digitigrade, aidé par une forte musculature, ce qui lui permettait de courir très vite. Les proies les plus convoitées devaient être des herbivores de la famille des rhinocéros ou des chevaux tels que les chalicothères. Il chassait peut-être des entélodontes juvéniles, mais pas les individus adultes qui, au contraire, représentaient des prédateurs ennemis. 
@@ -611,16 +629,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre Hyaenodon a été décrit par les paléontologues Laizer et Parieu en 1838. L’espèce-type pour le genre est Hyaenodon leptorhynchus.
-Synonymie
-Taxotherium Blainville 1841,
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hyaenodon a été décrit par les paléontologues Laizer et Parieu en 1838. L’espèce-type pour le genre est Hyaenodon leptorhynchus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyaenodon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyaenodon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Taxotherium Blainville 1841,
 Pseudopterodon Schlosser 1887,
 Neohyaenodon Thorpe 1922,
-Protohyaenodon Stock 1933
-Taxinomie
-Liste des espèces
+Protohyaenodon Stock 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyaenodon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyaenodon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des espèces
 Hyaenodon bavaricus
 Hyaenodon brevirostris
 Hyaenodon chunktensis (Dashzevg, 1985)
